--- a/data-raw/variable_definitions.xlsx
+++ b/data-raw/variable_definitions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -31,13 +31,13 @@
     <t xml:space="preserve">Population</t>
   </si>
   <si>
-    <t xml:space="preserve">Population is the sum of the population residing in the area defined in this profile at the time of the 2021 Census. Populations counted in the Census included Canadian citizens and landed immigrants with a usual place of residence in Canada, and non-permanent residents living in Canada.</t>
+    <t xml:space="preserve">Population is the sum of the population residing in the area at the time of the 2021 Census. Includes Canadian citizens and landed immigrants with a usual place of residence in Canada, and non-permanent residents living in Canada.</t>
   </si>
   <si>
     <t xml:space="preserve">Households</t>
   </si>
   <si>
-    <t xml:space="preserve">Household refers to a person or group of persons who occupy the same dwelling and do not have a usual place of residence elsewhere in Canada or abroad. The dwelling may be either a collective dwelling or a private dwelling. The household may consist of a family group such as a census family, of two or more families sharing a dwelling, of a group of unrelated persons or of a person living alone. Household members who are temporarily absent on reference day are considered p­art of their usual household.</t>
+    <t xml:space="preserve">Household refers to a person or group of persons who occupy the same dwelling and do not have a usual place of residence elsewhere in Canada or abroad. Private households occupy a private dwelling. All data is for private households only.</t>
   </si>
   <si>
     <t xml:space="preserve">Population change (2016 to 2021)</t>
@@ -55,10 +55,7 @@
     <t xml:space="preserve">Age cohorts</t>
   </si>
   <si>
-    <t xml:space="preserve">Private households</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Private household refers to a person or group of persons who occupy the same dwelling and do not have a usual place of residence elsewhere in Canada or abroad. The household universe is divided into two sub‑universes on the basis of whether the household is occupying a collective dwelling or a private dwelling. The latter is a private household.   For census purposes, households are classified into three groups: private households, collective households and households outside Canada.   Unless otherwise specified, all data in census products are for private households only. </t>
+    <t xml:space="preserve">Reflects the percentage of population which fall into age cohorts.</t>
   </si>
   <si>
     <t xml:space="preserve">Household size</t>
@@ -87,6 +84,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Families with one parent, where the parent is a woman+. "Women</t>
     </r>
@@ -95,6 +93,7 @@
         <sz val="10"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">＋</t>
     </r>
@@ -103,6 +102,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">" includes women as well as some non-binary persons.</t>
     </r>
@@ -111,18 +111,21 @@
     <t xml:space="preserve">Household type</t>
   </si>
   <si>
-    <t xml:space="preserve">Household type refers to the differentiation of households on the basis of whether they are census family households or non‑census‑family households. Census family households are those that contain at least one census family. Non‑census‑family households are either one person living alone or a group of two or more persons who live together but do not constitute a census family. Census family households may be differentiated based on the presence of additional persons (that is, persons not in a census family).</t>
+    <t xml:space="preserve">Household type differentiates households based on whether they are census family households or non‑census‑family households. Census family households are those that contain at least one census family. Non‑census‑family households are either one person living alone or a group of two or more persons who live together but do not constitute a census family. Census family households may be differentiated based on the presence of additional persons (that is, persons not in a census family).</t>
   </si>
   <si>
     <t xml:space="preserve">Census family</t>
   </si>
   <si>
-    <t xml:space="preserve">Census family is defined as a married couple and the children, if any, of either and/or both spouses; a couple living common law and the children, if any, of either and/or both partners; or a parent of any marital status in a one‑parent family with at least one child living in the same dwelling and that child or those children. All members of a particular census family live in the same dwelling. Children may be biological or adopted children regardless of their age or marital status as long as they live in the dwelling and do not have their own married spouse, common‑law partner or child living in the dwelling. Grandchildren living with their grandparent(s) but with no parents present also constitute a census family.</t>
+    <t xml:space="preserve">Census family includes a married or common-law couple and the children (of either/both spouses), and a parent of any marital status in a one-parent family with at least one child living in the same dwelling. All members of a census family live in the same dwelling. Children may be biological or adopted, of any age or marital status (as long as they do not have their own spouse or child living in the dwelling). Grandchildren living with their grandparent(s) but with no parents present also constitute a census family.</t>
   </si>
   <si>
     <t xml:space="preserve">Multigenerational households</t>
   </si>
   <si>
+    <t xml:space="preserve">Multigenerational households refer to when there is at least one person who is both the grandparent of a person in the household and the parent of another person in the same household, or at least one person who is both the child of a person in the household and the grandchild of another person in the household.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Multiple census families</t>
   </si>
   <si>
@@ -144,8 +147,7 @@
     <t xml:space="preserve">Language spoken most often at home</t>
   </si>
   <si>
-    <t xml:space="preserve">Language spoken most often at home refers to the language the person speaks most often at home at the time of data collection. A person can report more than one language as "spoken most often at home" if the languages are spoken equally often.&lt;br&gt;
-For a person who lives alone, the language spoken most often at home is the language in which they feel most comfortable. For a child who has not yet learned to speak, this is the language spoken most often to the child at home. Where more than one language is spoken to the child, the language spoken most often at home is the language spoken most often. If more than one language is spoken equally often to the child, then these languages are included here. </t>
+    <t xml:space="preserve">Home language is the language spoken most often at home by a person at the time of the Census. A person can report more than one of the languages are spoken equally often.</t>
   </si>
   <si>
     <t xml:space="preserve">English spoken at home</t>
@@ -166,49 +168,52 @@
     <t xml:space="preserve">Non-official language spoken at home includes people who provided a single-response of the language spoken most often at home, which is not English or French. Shown are the top ten (if relevant) languages spoken at home.</t>
   </si>
   <si>
+    <t xml:space="preserve">Total household income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total household income refers to income of all household members, before income taxes and deductions. Income data is from 2020.</t>
+  </si>
+  <si>
     <t xml:space="preserve">(Estimated) Median total household income</t>
   </si>
   <si>
     <t xml:space="preserve">Median household income is the median total income for private households in 2015. If relevant, the median is estimated.</t>
   </si>
   <si>
-    <t xml:space="preserve">Total household income</t>
-  </si>
-  <si>
     <t xml:space="preserve">Low income (LIM-AT)</t>
   </si>
   <si>
-    <t xml:space="preserve">The Low‑income measure, after tax, refers to a fixed percentage (50%) of median adjusted after‑tax income of private households. The household after‑tax income is adjusted by an equivalence scale to take economies of scale into account. This adjustment for different household sizes reflects the fact that a household's needs increase, but at a decreasing rate, as the number of members increases.   Using data from the 2021 Census of Population, the line applicable to a household is defined as half the Canadian median of adjusted household after‑tax income, multiplied by the square root of household size. The median is computed from all persons in private households. Thresholds for specific household sizes are presented in Table 2.4 Low‑income measures thresholds (LIM‑AT and LIM‑BT) for private households of Canada, 2020, Dictionary, Census of Population, 2021.   ​When the unadjusted after‑tax income of household pertaining to a person falls below the threshold applicable to the person based on household size, the person is considered to be in low income according to LIM‑AT. Low‑income status is typically presented for persons but, since the LIM‑AT threshold and household income are unique and shared by all members within each household, low‑income status based on LIM‑AT can also be reported for households.   For the 2021 Census, the reference period for low‑income data is the calendar year 2020.</t>
+    <t xml:space="preserve">The Low-income measure, after tax (LIM-AT) is defined as half the Canadian median of adjusted household after-tax income, multiplied by the square root of household size. When the unadjusted after-tax income of household for a person is below the threshold, the person is considered to be low-income according to the LIM-AT.</t>
   </si>
   <si>
     <t xml:space="preserve">Unaffordable housing</t>
   </si>
   <si>
-    <t xml:space="preserve">Unaffordable housing is the percentage of private households spending more than 30 per cent of their total household income on shelter costs. This is another of component CMHC's Core Housing Need.</t>
+    <t xml:space="preserve">Unaffordable housing refers to when private households spent more than 30 per cent of their total household income on shelter costs.</t>
   </si>
   <si>
     <t xml:space="preserve">Shelter cost</t>
   </si>
   <si>
-    <t xml:space="preserve">Shelter cost refers to the average monthly total of all shelter expenses paid by households.   Shelter costs for owner households include, where applicable, mortgage payments, property taxes and condominium fees, along with the costs of electricity, heat, water and other municipal services. For renter households, shelter costs include, where applicable, the rent and the costs of electricity, heat, water and other municipal services. For households living in a dwelling provided by the local government, First Nation or Indian band, shelter costs include, where applicable, the monthly use or occupancy payment and the costs of electricity, heat, water and other municipal services. </t>
+    <t xml:space="preserve">Shelter cost refers to the average monthly total of all shelter expenses paid by households. For all households, this includes (where applicable) electricity, heat, and water. For owner households: mortgage payments, property taxes, condominium fees; for renter households: rent;  households living in a dwelling provided by the local government, First Nation or Indian band: monthly use or occupancy payment.</t>
   </si>
   <si>
     <t xml:space="preserve">Tenure</t>
   </si>
   <si>
-    <t xml:space="preserve">Tenure refers to whether the household owns or rents their private dwelling. The private dwelling may be situated on rented or leased land or be part of a condominium. A household is considered to own their dwelling if some member of the household owns the dwelling even if it is not fully paid for, for example if there is a mortgage or some other claim on it. A household is considered to rent their dwelling if no member of the household owns the dwelling. A household is considered to rent that dwelling even if the dwelling is provided without cash rent or at a reduced rent, or if the dwelling is part of a cooperative.   For historical and statutory reasons, shelter occupancy on Indian reserves or settlements does not lend itself to the usual classification by standard tenure categories. Therefore, a special category, 'dwelling provided by the local government, First Nation or Indian band,' has been created for census purposes. </t>
+    <t xml:space="preserve">Tenure refers to whether the household owns or rents their private dwelling (on owned or leased land, or part of a condominium). There is also a category 'dwelling provided by the local government, First Nation, or Indian band', as shelter occupancy on Indian reserves or settlements does not lend itself to the usual tenure classifications.</t>
   </si>
   <si>
     <t xml:space="preserve">Visible minority</t>
   </si>
   <si>
-    <t xml:space="preserve">Visible minority refers to whether a person is a visible minority or not, as defined by the Employment Equity Act. The Employment Equity Act defines visible minorities as "persons, other than Aboriginal peoples, who are non‑Caucasian in race or non‑white in colour." The visible minority population consists mainly of the following groups: South Asian, Chinese, Black, Filipino, Arab, Latin American, Southeast Asian, West Asian, Korean and Japanese.</t>
+    <t xml:space="preserve">Visible minority refers to whether a person belongs to a visible minority group. This excludes Indigenous people, but includes other persons who are non-Caucasian in race or non-white in colour.</t>
   </si>
   <si>
     <t xml:space="preserve">Immigrants</t>
   </si>
   <si>
-    <t xml:space="preserve">Immigrant refers to a person who is, or who has ever been, a landed immigrant or permanent resident. Such a person has been granted the right to live in Canada permanently by immigration authorities. Immigrants who have obtained Canadian citizenship by naturalization are included in this group.   In the 2021 Census of Population, 'Immigrant' includes immigrants who were admitted to Canada on or prior to May 11, 2021. </t>
+    <t xml:space="preserve">Immigrant refers to a person who is, or who has ever been, a landed immigrant or permanent resident, including those who have obtained Canadian citizenship by naturalization.</t>
   </si>
   <si>
     <t xml:space="preserve">Recent immigrants (2011 to 2016)</t>
@@ -220,7 +225,7 @@
     <t xml:space="preserve">Indigenous identity</t>
   </si>
   <si>
-    <t xml:space="preserve">Indigenous identity refers to whether the person identified with the Indigenous peoples of Canada. This includes those who identify as First Nations (North American Indian), Métis and/or Inuk (Inuit), and/or those who report being Registered or Treaty Indians (that is, registered under the Indian Act of Canada), and/or those who have membership in a First Nation or Indian band. Aboriginal peoples of Canada (referred to here as Indigenous peoples) are defined in the Constitution Act, 1982, Section 35 (2) as including the Indian, Inuit and Métis peoples of Canada. </t>
+    <t xml:space="preserve">Indigenous identity refers to whether the person identified with the Indigenous peoples of Canada. This includes those who identify as First Nations, Métis and/or Inuk (Inuit), and/or those who report being Registered or Treaty Indian, and/or those who have membership in a First Nation or Indian band.</t>
   </si>
   <si>
     <t xml:space="preserve">Ethnic or cultural origin</t>
@@ -241,6 +246,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -261,6 +267,7 @@
       <sz val="10"/>
       <name val="PingFang SC"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -335,15 +342,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="176.81"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -390,207 +398,208 @@
       <c r="A6" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="B6" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="0" t="s">
         <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>42</v>
+      <c r="A23" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/variable_definitions.xlsx
+++ b/data-raw/variable_definitions.xlsx
@@ -183,7 +183,7 @@
     <t xml:space="preserve">Low income (LIM-AT)</t>
   </si>
   <si>
-    <t xml:space="preserve">The Low-income measure, after tax (LIM-AT) is defined as half the Canadian median of adjusted household after-tax income, multiplied by the square root of household size. When the unadjusted after-tax income of household for a person is below the threshold, the person is considered to be low-income according to the LIM-AT.</t>
+    <t xml:space="preserve">The Low-income measure, after tax (LIM-AT) is defined as half the Canadian median of adjusted household after-tax income, multiplied by the square root of household size. When the unadjusted after-tax income of household for a person is below the threshold, the person is considered to be low-income according to the LIM-AT.&lt;br&gt;&lt;br&gt;The low-income concepts are not applied in the territories and in certain areas based on census subdivision type (such as Indian reserves).</t>
   </si>
   <si>
     <t xml:space="preserve">Unaffordable housing</t>
@@ -345,10 +345,10 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="176.81"/>

--- a/data-raw/variable_definitions.xlsx
+++ b/data-raw/variable_definitions.xlsx
@@ -183,7 +183,7 @@
     <t xml:space="preserve">Low income (LIM-AT)</t>
   </si>
   <si>
-    <t xml:space="preserve">The Low-income measure, after tax (LIM-AT) is defined as half the Canadian median of adjusted household after-tax income, multiplied by the square root of household size. When the unadjusted after-tax income of household for a person is below the threshold, the person is considered to be low-income according to the LIM-AT.&lt;br&gt;&lt;br&gt;The low-income concepts are not applied in the territories and in certain areas based on census subdivision type (such as Indian reserves).</t>
+    <t xml:space="preserve">The Low-income measure, after tax (LIM-AT) is defined as half the Canadian median of adjusted household after-tax income, multiplied by the square root of household size. When the unadjusted after-tax income of household for a person is below the threshold, the person is considered to be low-income (LIM-AT).&lt;br&gt;&lt;br&gt;The low-income concepts are not applied in the territories and in certain areas based on census subdivision type (such as Indian reserves).</t>
   </si>
   <si>
     <t xml:space="preserve">Unaffordable housing</t>
@@ -345,10 +345,10 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="176.81"/>

--- a/data-raw/variable_definitions.xlsx
+++ b/data-raw/variable_definitions.xlsx
@@ -150,13 +150,13 @@
     <t xml:space="preserve">Home language is the language spoken most often at home by a person at the time of the Census. A person can report more than one of the languages are spoken equally often.</t>
   </si>
   <si>
-    <t xml:space="preserve">English spoken at home</t>
+    <t xml:space="preserve">English spoken most often at home</t>
   </si>
   <si>
     <t xml:space="preserve">English spoken most often at home includes people who speak English most often, as well as people who speak English and other language(s) equally.</t>
   </si>
   <si>
-    <t xml:space="preserve">French spoken at home</t>
+    <t xml:space="preserve">French spoken most often at home</t>
   </si>
   <si>
     <t xml:space="preserve">French spoken most often at home includes people who speak French most often, as well as people who speak French and other language(s) equally.</t>
@@ -165,7 +165,7 @@
     <t xml:space="preserve">Non-official language spoken at home</t>
   </si>
   <si>
-    <t xml:space="preserve">Non-official language spoken at home includes people who provided a single-response of the language spoken most often at home, which is not English or French. Shown are the top ten (if relevant) languages spoken at home.</t>
+    <t xml:space="preserve">Non-official language spoken at home includes people who provided a single-response of the language spoken most often at home, which is not English or French. Shown are the top ten (if relevant) languages most often spoken at home.</t>
   </si>
   <si>
     <t xml:space="preserve">Total household income</t>
@@ -177,7 +177,7 @@
     <t xml:space="preserve">(Estimated) Median total household income</t>
   </si>
   <si>
-    <t xml:space="preserve">Median household income is the median total income for private households in 2015. If relevant, the median is estimated.</t>
+    <t xml:space="preserve">Median household income is the median total income for private households in 2015. If relevant, the median is estimated using bucket counts and assuming a uniform distribution.</t>
   </si>
   <si>
     <t xml:space="preserve">Low income (LIM-AT)</t>
@@ -344,11 +344,11 @@
   </sheetPr>
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="176.81"/>

--- a/data-raw/variable_definitions.xlsx
+++ b/data-raw/variable_definitions.xlsx
@@ -177,7 +177,7 @@
     <t xml:space="preserve">(Estimated) Median total household income</t>
   </si>
   <si>
-    <t xml:space="preserve">Median household income is the median total income for private households in 2015. If relevant, the median is estimated using bucket counts and assuming a uniform distribution.</t>
+    <t xml:space="preserve">Median household income is the median total income for private households in 2020. If relevant, the median is estimated using bucket counts and assuming a uniform distribution.</t>
   </si>
   <si>
     <t xml:space="preserve">Low income (LIM-AT)</t>
@@ -345,10 +345,10 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="176.81"/>

--- a/data-raw/variable_definitions.xlsx
+++ b/data-raw/variable_definitions.xlsx
@@ -171,7 +171,7 @@
     <t xml:space="preserve">Educational attainment</t>
   </si>
   <si>
-    <t xml:space="preserve">Educational attainment refers to the highest level of education that a person has successfully completed.</t>
+    <t xml:space="preserve">Educational attainment refers to the highest level of education that a person aged 15 years and over has successfully completed.</t>
   </si>
   <si>
     <t xml:space="preserve">No high school or postsecondary</t>
@@ -365,7 +365,7 @@
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6796875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data-raw/variable_definitions.xlsx
+++ b/data-raw/variable_definitions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -186,10 +186,34 @@
     <t xml:space="preserve">High school or equivalent only includes people who have this as their highest educational credential. It excludes persons with a postsecondary certificate, diploma or degree.</t>
   </si>
   <si>
-    <t xml:space="preserve">Postsecondary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postsecondary includes certificates, diplomas, and degrees from apprenticeships or trades, vocational training, CEGEP, colleges, and universities.</t>
+    <t xml:space="preserve">Apprenticeship or trades certificate or diploma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Includes people who have obtained a certificate, diploma or equivalent in the skilled trades or in entry-level vocations, career and technical occupations. People who also have a postsecondary certificate, diploma or degree other than an apprenticeship or trades certificate or diploma are excluded from this category.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">College, CEGEP or other non-university certificate or diploma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Includes people who obtained a (non-trades) postsecondary certificate or diploma of 3 months or more from a public or private college, CEGEP, polytechnic, institute of technology, school of nursing, business school or vocational school. People who also have university certificates, diplomas or degrees are also excluded from this category.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University certificate or diploma below bachelor level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Includes people who have obtained a university certificate or diploma below the bachelor level and who have not obtained any higher degrees, certificates or diplomas. University certificates or diplomas are commonly connected with professional associations in fields such as accounting, banking, insurance or public administration. The certificates and diplomas in this category do not require a bachelor's degree as a prerequisite.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bachelor's degree or certificate/diploma above bachelor level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Includes people who have obtained a bachelor's degree awarded by a degree-granting institution and people who have obtained a certificate or diploma that usually requires a bachelor's degree as a prerequisite. It excludes people who have obtained any higher degrees.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graduate or professional degree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Includes people who have obtained degrees in medicine, dentistry, veterinary medicine or optometry; people who have obtained a master's degree; and people who have obtained a doctorate degree awarded by a university.</t>
   </si>
   <si>
     <t xml:space="preserve">Total household income</t>
@@ -362,16 +386,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6796875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="176.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="176.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -566,7 +590,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>48</v>
       </c>
@@ -574,7 +598,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>50</v>
       </c>
@@ -582,7 +606,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>52</v>
       </c>
@@ -590,7 +614,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>54</v>
       </c>
@@ -654,6 +678,42 @@
         <v>69</v>
       </c>
     </row>
+    <row r="36" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
